--- a/HelloExpress/names.xlsx
+++ b/HelloExpress/names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyun/Desktop/2019_summer/freeze/HelloExpress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FEF54F-E0EF-A243-BE07-B0BB6955A662}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B69F7-E850-3F45-B514-774D47EA3021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{357AE11B-7935-0447-BE81-A7FAE9959DC9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>이지현</t>
   </si>
@@ -43,6 +43,36 @@
   </si>
   <si>
     <t>최지현</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>박성진</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -394,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A93270-9A69-6345-9BCB-9DFCDD02CD22}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,6 +464,86 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
